--- a/waterCapacityFactors.xlsx
+++ b/waterCapacityFactors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\SpiderOak Hive\Uni\epm\project\epmProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\SS24\CaseStudies\gamsFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{B4A0E721-58C5-4AEE-9887-0474C1D27B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A540844-4F2F-425F-8F47-C90298E96C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,33 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>current TWh</t>
   </si>
   <si>
-    <t>FR</t>
-  </si>
-  <si>
     <t>DE</t>
   </si>
   <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>LUX</t>
-  </si>
-  <si>
     <t>potential today</t>
   </si>
   <si>
     <t>change 2070</t>
-  </si>
-  <si>
-    <t>BNL</t>
   </si>
   <si>
     <t>TWh 2070</t>
@@ -74,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,7 +93,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -124,7 +109,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -439,170 +424,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <f>F2/C2</f>
-        <v>2.3074514200298952</v>
+        <v>3.7939618644067794</v>
       </c>
       <c r="C2">
-        <v>66.900000000000006</v>
+        <v>23.6</v>
       </c>
       <c r="D2">
-        <f>AVERAGE(183.2,190.8)</f>
-        <v>187</v>
+        <f>AVERAGE(82.2,107.8)</f>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>-17.45</v>
+        <v>-5.75</v>
       </c>
       <c r="F2">
         <f>D2*((100+E2)/100)</f>
-        <v>154.36850000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f>F3/C3</f>
-        <v>3.7939618644067794</v>
-      </c>
-      <c r="C3">
-        <v>23.6</v>
-      </c>
-      <c r="D3">
-        <f>AVERAGE(82.2,107.8)</f>
-        <v>95</v>
-      </c>
-      <c r="E3">
-        <v>-5.75</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F7" si="0">D3*((100+E3)/100)</f>
         <v>89.537499999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <f>F4/C4</f>
-        <v>2.4258993697330218</v>
-      </c>
-      <c r="C4">
-        <f>SUM(C5:C7)</f>
-        <v>2.8241999999999998</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:E4" si="1">SUM(D5:D7)</f>
-        <v>7.1499999999999995</v>
-      </c>
-      <c r="E4">
-        <f>(E5*D5+E6*D6+E7*D7)/SUM(D5:D7)</f>
-        <v>-4.1786713286713288</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>6.8512249999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <f>F5/C5</f>
-        <v>7.7274754683318463</v>
-      </c>
-      <c r="C5">
-        <v>0.22420000000000001</v>
-      </c>
-      <c r="D5">
-        <f>AVERAGE(0.2,3.3)</f>
-        <v>1.75</v>
-      </c>
-      <c r="E5">
-        <f>AVERAGE(5.1,-7.1)</f>
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>1.7324999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <f>F6/C6</f>
-        <v>2.6946029411764707</v>
-      </c>
-      <c r="C6">
-        <v>1.7</v>
-      </c>
-      <c r="D6">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="E6">
-        <v>-5.55</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>4.5808249999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <f>F7/C7</f>
-        <v>0.59766666666666668</v>
-      </c>
-      <c r="C7">
-        <v>0.9</v>
-      </c>
-      <c r="D7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E7">
-        <f>AVERAGE(-1.3,-3.1)</f>
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0.53790000000000004</v>
       </c>
     </row>
   </sheetData>
